--- a/files/TOPIC_Classes.xlsx
+++ b/files/TOPIC_Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Hochschule der Medien_M.Sc. Data Science\Master\Repository\ml-classification-repo\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25408D9-DD90-4CC0-9795-49768B3C11FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652F7614-34B4-4B71-BB07-5D57CC50F92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>AUTONOMOUS</t>
   </si>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,10 +640,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -651,10 +648,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -662,10 +659,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -673,10 +667,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -684,7 +678,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -692,12 +686,74 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
         <v>16</v>
       </c>
     </row>
